--- a/Study Materials/ParticipantData/User13.xlsx
+++ b/Study Materials/ParticipantData/User13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29080" yWindow="-520" windowWidth="23020" windowHeight="20160" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="-6100" windowWidth="25440" windowHeight="20440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="120">
   <si>
     <t>7.  Have you posted antying on a social network recently that you would have preferred to share with a smaller gorup of people?</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -32,6 +32,10 @@
   </si>
   <si>
     <t>6.  Do you think you changed your FB usage habits while participating in this study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(?)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -471,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -572,16 +576,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -594,13 +621,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -618,6 +638,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,64 +990,64 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15">
@@ -1028,22 +1061,22 @@
         <v>39417.123055555552</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="1">
         <v>39417.123055555552</v>
@@ -1052,13 +1085,13 @@
         <v>39419.049409722225</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T2" s="1">
         <v>39416.914722222224</v>
@@ -1075,22 +1108,22 @@
         <v>39417.123333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="1">
         <v>39417.123333333337</v>
@@ -1099,13 +1132,13 @@
         <v>39419.050821759258</v>
       </c>
       <c r="Q3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T3" s="1">
         <v>39416.915000000001</v>
@@ -1122,22 +1155,22 @@
         <v>39417.694687499999</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O4" s="1">
         <v>39417.694687499999</v>
@@ -1146,13 +1179,13 @@
         <v>39419.050254629627</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T4" s="1">
         <v>39417.486354166664</v>
@@ -1169,22 +1202,22 @@
         <v>39418.86681712963</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="1">
         <v>39418.866828703707</v>
@@ -1193,13 +1226,13 @@
         <v>39419.047893518517</v>
       </c>
       <c r="Q5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T5" s="1">
         <v>39418.658483796295</v>
@@ -1216,22 +1249,22 @@
         <v>39420.079791666663</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="1">
         <v>39420.079791666663</v>
@@ -1240,13 +1273,13 @@
         <v>39420.109085648146</v>
       </c>
       <c r="Q6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T6" s="1">
         <v>39419.871458333335</v>
@@ -1263,22 +1296,22 @@
         <v>39420.865393518521</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" s="1">
         <v>39420.865393518521</v>
@@ -1287,13 +1320,13 @@
         <v>39421.891064814816</v>
       </c>
       <c r="Q7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T7" s="1">
         <v>39420.657060185185</v>
@@ -1310,22 +1343,22 @@
         <v>39421.898645833331</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O8" s="1">
         <v>39421.898645833331</v>
@@ -1334,13 +1367,13 @@
         <v>39422.149953703702</v>
       </c>
       <c r="Q8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T8" s="1">
         <v>39421.690312500003</v>
@@ -1357,22 +1390,22 @@
         <v>39423.043310185189</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O9" s="1">
         <v>39423.043310185189</v>
@@ -1381,13 +1414,13 @@
         <v>39423.055046296293</v>
       </c>
       <c r="Q9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T9" s="1">
         <v>39422.834976851853</v>
@@ -1404,22 +1437,22 @@
         <v>39423.208333333336</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O10" s="1">
         <v>39423.055277777778</v>
@@ -1428,20 +1461,19 @@
         <v>39423.056701388887</v>
       </c>
       <c r="Q10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T10" s="1">
         <v>39423.208333333336</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1455,10 +1487,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1474,332 +1509,331 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14" thickBot="1">
       <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="52">
+      <c r="A2" s="4">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5">
+        <v>39417.123055555552</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="39">
+      <c r="A3" s="6">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7">
+        <v>39417.123333333337</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="52">
+      <c r="A4" s="6">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7">
+        <v>39417.694687499999</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="65">
+      <c r="A5" s="6">
+        <v>63</v>
+      </c>
+      <c r="B5" s="7">
+        <v>39418.86681712963</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="91">
+      <c r="A6" s="6">
+        <v>78</v>
+      </c>
+      <c r="B6" s="7">
+        <v>39420.079791666663</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="130">
+      <c r="A7" s="6">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7">
+        <v>39420.865393518521</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="169">
+      <c r="A8" s="6">
+        <v>95</v>
+      </c>
+      <c r="B8" s="7">
+        <v>39421.898645833331</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="52" customHeight="1">
+      <c r="A9" s="6">
+        <v>106</v>
+      </c>
+      <c r="B9" s="7">
+        <v>39423.043310185189</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="156">
+      <c r="A10" s="6">
+        <v>108</v>
+      </c>
+      <c r="B10" s="7">
+        <v>39423.208333333336</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="52">
-      <c r="A2" s="5">
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="6">
-        <v>39417.123055555552</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="39">
-      <c r="A3" s="7">
-        <v>48</v>
-      </c>
-      <c r="B3" s="8">
-        <v>39417.123333333337</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="52">
-      <c r="A4" s="7">
-        <v>58</v>
-      </c>
-      <c r="B4" s="8">
-        <v>39417.694687499999</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="65">
-      <c r="A5" s="7">
-        <v>63</v>
-      </c>
-      <c r="B5" s="8">
-        <v>39418.86681712963</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="91">
-      <c r="A6" s="7">
-        <v>78</v>
-      </c>
-      <c r="B6" s="8">
-        <v>39420.079791666663</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="130">
-      <c r="A7" s="7">
-        <v>85</v>
-      </c>
-      <c r="B7" s="8">
-        <v>39420.865393518521</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="169">
-      <c r="A8" s="7">
-        <v>95</v>
-      </c>
-      <c r="B8" s="8">
-        <v>39421.898645833331</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17" customHeight="1">
-      <c r="A9" s="7">
-        <v>106</v>
-      </c>
-      <c r="B9" s="8">
-        <v>39423.043310185189</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="156">
-      <c r="A10" s="7">
-        <v>108</v>
-      </c>
-      <c r="B10" s="8">
-        <v>39423.208333333336</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>60</v>
+      <c r="J10" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="57" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
@@ -1809,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1827,410 +1861,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="12" t="s">
-        <v>11</v>
+      <c r="A1" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B1">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="12" t="s">
-        <v>12</v>
+      <c r="A2" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
+      <c r="A3" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9">
         <v>39423</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="12" t="s">
-        <v>17</v>
+      <c r="A5" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
+      <c r="A6" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="14" customFormat="1"/>
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="10" customFormat="1"/>
     <row r="11" spans="1:13">
-      <c r="A11" s="15" t="s">
-        <v>22</v>
+      <c r="A11" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="12" t="s">
-        <v>23</v>
+      <c r="A13" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" ht="117">
-      <c r="A15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="117">
+      <c r="A15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="C15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="F15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="I15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="J15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="K15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="L15" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" s="17" customFormat="1">
-      <c r="A16" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="M15" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="13" customFormat="1">
+      <c r="A16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="16">
         <v>47</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" s="17" customFormat="1">
-      <c r="A17" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="20">
+      <c r="E16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1">
+      <c r="A17" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="16">
         <v>48</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="20" t="s">
+      <c r="D17" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" s="17" customFormat="1">
-      <c r="A18" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="20">
+      <c r="E17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="13" customFormat="1">
+      <c r="A18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="16">
         <v>58</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1">
+      <c r="A19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="16">
+        <v>63</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" s="13" customFormat="1">
+      <c r="A20" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="16">
+        <v>78</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" s="13" customFormat="1">
+      <c r="A21" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="16">
+        <v>85</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" s="13" customFormat="1">
+      <c r="A22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="16">
         <v>95</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" s="17" customFormat="1">
-      <c r="A19" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="20">
-        <v>63</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" s="17" customFormat="1">
-      <c r="A20" s="20" t="s">
+      <c r="D22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" s="13" customFormat="1">
+      <c r="A23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="16">
         <v>106</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="20">
-        <v>78</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="D23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" s="13" customFormat="1">
+      <c r="A24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="16">
         <v>108</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:13" s="17" customFormat="1">
-      <c r="A21" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="20">
-        <v>85</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" s="17" customFormat="1">
-      <c r="A22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="20">
-        <v>95</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:13" s="17" customFormat="1">
-      <c r="A23" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="20">
-        <v>106</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" s="17" customFormat="1">
-      <c r="A24" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="20">
-        <v>108</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+      <c r="D24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="17"/>
-    </row>
-    <row r="26" spans="1:13" s="14" customFormat="1">
-      <c r="A26" s="18"/>
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" s="10" customFormat="1">
+      <c r="A26" s="14"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="17"/>
+      <c r="A27" s="13"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="B28" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="52">
-      <c r="A29" s="16" t="s">
-        <v>5</v>
+      <c r="A29" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="39">
-      <c r="A30" s="16" t="s">
-        <v>6</v>
+      <c r="A30" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="26">
-      <c r="A31" s="16" t="s">
-        <v>7</v>
+      <c r="A31" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="26">
-      <c r="A32" s="16" t="s">
-        <v>8</v>
+      <c r="A32" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="26">
-      <c r="A33" s="16" t="s">
-        <v>9</v>
+      <c r="A33" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="26">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="52">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2240,7 +2277,6 @@
     <row r="45" spans="1:1" ht="26"/>
     <row r="46" spans="1:1" ht="52"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
